--- a/translatinator/input_translate.xlsx
+++ b/translatinator/input_translate.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="translation" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="translation" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="76">
   <si>
     <t xml:space="preserve">Original</t>
   </si>
@@ -209,6 +209,45 @@
   </si>
   <si>
     <t xml:space="preserve">22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08/11/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:45:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">!!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">---</t>
+  </si>
+  <si>
+    <t xml:space="preserve">***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">☑✔✓</t>
+  </si>
+  <si>
+    <t xml:space="preserve">🙂😂🙌</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#$%^&amp;*()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0000000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123-45-6789</t>
   </si>
 </sst>
 </file>
@@ -300,24 +339,28 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -333,44 +376,150 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
-      <selection pane="bottomRight" activeCell="B36" activeCellId="0" sqref="B36"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A41" activeCellId="0" sqref="A41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9921875" defaultRowHeight="21.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9921875" defaultRowHeight="21.05" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="42.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="48.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="48.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="16.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="10"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="3"/>
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -378,12 +527,12 @@
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="0" t="n">
+      <c r="E2" s="3"/>
+      <c r="F2" s="2" t="n">
         <v>44</v>
       </c>
     </row>
@@ -391,12 +540,12 @@
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="0" t="n">
+      <c r="E3" s="3"/>
+      <c r="F3" s="2" t="n">
         <v>41</v>
       </c>
     </row>
@@ -404,12 +553,12 @@
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="0" t="n">
+      <c r="E4" s="3"/>
+      <c r="F4" s="2" t="n">
         <v>38</v>
       </c>
     </row>
@@ -417,12 +566,12 @@
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="0" t="n">
+      <c r="E5" s="3"/>
+      <c r="F5" s="2" t="n">
         <v>38</v>
       </c>
     </row>
@@ -430,12 +579,12 @@
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="0" t="n">
+      <c r="E6" s="3"/>
+      <c r="F6" s="2" t="n">
         <v>38</v>
       </c>
     </row>
@@ -443,12 +592,12 @@
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="0" t="n">
+      <c r="E7" s="3"/>
+      <c r="F7" s="2" t="n">
         <v>38</v>
       </c>
     </row>
@@ -456,12 +605,12 @@
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="0" t="n">
+      <c r="E8" s="3"/>
+      <c r="F8" s="2" t="n">
         <v>38</v>
       </c>
     </row>
@@ -469,12 +618,12 @@
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2" t="s">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="0" t="n">
+      <c r="E9" s="3"/>
+      <c r="F9" s="2" t="n">
         <v>37</v>
       </c>
     </row>
@@ -482,12 +631,12 @@
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2" t="s">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="0" t="n">
+      <c r="E10" s="3"/>
+      <c r="F10" s="2" t="n">
         <v>37</v>
       </c>
     </row>
@@ -495,12 +644,12 @@
       <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2" t="s">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="0" t="n">
+      <c r="E11" s="3"/>
+      <c r="F11" s="2" t="n">
         <v>37</v>
       </c>
     </row>
@@ -508,12 +657,12 @@
       <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2" t="s">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="0" t="n">
+      <c r="E12" s="3"/>
+      <c r="F12" s="2" t="n">
         <v>36</v>
       </c>
     </row>
@@ -521,25 +670,25 @@
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2" t="s">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="0" t="n">
+      <c r="E13" s="3"/>
+      <c r="F13" s="2" t="n">
         <v>33</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="21.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2" t="s">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="0" t="n">
+      <c r="E14" s="3"/>
+      <c r="F14" s="2" t="n">
         <v>32</v>
       </c>
     </row>
@@ -547,12 +696,12 @@
       <c r="A15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2" t="s">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="0" t="n">
+      <c r="E15" s="3"/>
+      <c r="F15" s="2" t="n">
         <v>31</v>
       </c>
     </row>
@@ -560,12 +709,12 @@
       <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2" t="s">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="0" t="n">
+      <c r="E16" s="3"/>
+      <c r="F16" s="2" t="n">
         <v>31</v>
       </c>
     </row>
@@ -573,12 +722,12 @@
       <c r="A17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2" t="s">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="0" t="n">
+      <c r="E17" s="3"/>
+      <c r="F17" s="2" t="n">
         <v>31</v>
       </c>
     </row>
@@ -586,12 +735,12 @@
       <c r="A18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2" t="s">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="0" t="n">
+      <c r="E18" s="3"/>
+      <c r="F18" s="2" t="n">
         <v>31</v>
       </c>
     </row>
@@ -599,12 +748,12 @@
       <c r="A19" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2" t="s">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="0" t="n">
+      <c r="E19" s="3"/>
+      <c r="F19" s="2" t="n">
         <v>29</v>
       </c>
     </row>
@@ -612,12 +761,12 @@
       <c r="A20" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2" t="s">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="0" t="n">
+      <c r="E20" s="3"/>
+      <c r="F20" s="2" t="n">
         <v>29</v>
       </c>
     </row>
@@ -625,12 +774,12 @@
       <c r="A21" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2" t="s">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="0" t="n">
+      <c r="E21" s="3"/>
+      <c r="F21" s="2" t="n">
         <v>23</v>
       </c>
     </row>
@@ -638,12 +787,12 @@
       <c r="A22" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2" t="s">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2" t="n">
+      <c r="E22" s="3"/>
+      <c r="F22" s="3" t="n">
         <v>2269</v>
       </c>
     </row>
@@ -651,38 +800,38 @@
       <c r="A23" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2" t="s">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2" t="n">
+      <c r="E23" s="3"/>
+      <c r="F23" s="3" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="21.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2" t="s">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="0" t="n">
+      <c r="E24" s="3"/>
+      <c r="F24" s="2" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="21.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2" t="s">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="0" t="n">
+      <c r="E25" s="3"/>
+      <c r="F25" s="2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -690,103 +839,168 @@
       <c r="A26" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2" t="s">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="0" t="n">
+      <c r="E26" s="3"/>
+      <c r="F26" s="2" t="n">
         <v>4351</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="21.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
     </row>
     <row r="28" customFormat="false" ht="21.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
     </row>
     <row r="29" customFormat="false" ht="21.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
     </row>
     <row r="30" customFormat="false" ht="21.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
     </row>
     <row r="31" customFormat="false" ht="21.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-    </row>
-    <row r="32" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" customFormat="false" ht="21.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="21.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="21.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="21.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="21.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="21.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="21.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="21.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="21.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="21.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="21.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="21.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="21.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="21.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="21.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="21.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="21.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="21.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="21.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="21.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="21.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="21.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -794,7 +1008,7 @@
     <hyperlink ref="A32" r:id="rId1" display="HR (2175551212@s.whatsapp.net) added Jim Jones (2175551213@s.whatsapp.net owner)"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
